--- a/doc/T3V.xlsx
+++ b/doc/T3V.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DANH SÁCH THÀNH VIÊN NHÓM T3V MÔN NHẬP MÔN CÔNG NGHỆ PHẦN MỀM</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Lớp : TH2009/03-1</t>
+  </si>
+  <si>
+    <t>check out! :)</t>
   </si>
 </sst>
 </file>
@@ -176,9 +179,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,6 +190,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,14 +504,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:7">
       <c r="G2" t="s">
@@ -516,97 +519,102 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
